--- a/dst/evaluate_summary.xlsx
+++ b/dst/evaluate_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\forRepository\dst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\repositoryData\dst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159FAF4A-A598-4348-A7A8-C91CF83B10CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D08F8-FB28-411F-B4E0-4F9C492A1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="1530" windowWidth="19560" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>proposed method</t>
   </si>
@@ -66,18 +66,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>34 (3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>35 (4)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>15 (8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>30 (7)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -90,23 +82,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>14 (3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>21 (4)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>31(5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>26 (10)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>The estimated errors of the proposed method were lower than the estimated errors obtained via FRA at site 1, 3, 4, and 5.</t>
+    <t>16 (7)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16 (1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>33 (3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The estimated errors of the proposed method were lower than the estimated errors obtained via FRA at site 2, 3, 4, and 5.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -190,9 +186,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -201,6 +194,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +503,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,7 +513,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -534,11 +530,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>31</v>
@@ -550,11 +546,11 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>23</v>
@@ -566,11 +562,11 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -582,11 +578,11 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -598,11 +594,11 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -616,26 +612,26 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/dst/evaluate_summary.xlsx
+++ b/dst/evaluate_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\repositoryData\dst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Documents\GitHub\hachiroko202206-neuralNetworkEstimation\dst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D08F8-FB28-411F-B4E0-4F9C492A1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2C4D2-605D-431C-998D-B6B8F91AB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1530" windowWidth="19560" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="1830" windowWidth="14520" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>proposed method</t>
   </si>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>19 (1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>30 (10)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -90,19 +86,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>16 (7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16 (1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>33 (3)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>The estimated errors of the proposed method were lower than the estimated errors obtained via FRA at site 2, 3, 4, and 5.</t>
+    <t>34 (3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17 (6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21 (1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17 (0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The estimated errors of the proposed method were lower than the estimated errors obtained via FRA at all sites.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -503,7 +507,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -547,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -563,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -579,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -595,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -613,7 +617,7 @@
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
